--- a/examples/javascript/WebGL/WebGLGoldDropletTransactions/WebGLGoldDropletTransactions/Data/Book1.xlsx
+++ b/examples/javascript/WebGL/WebGLGoldDropletTransactions/WebGLGoldDropletTransactions/Data/Book1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="1" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="Assets" sheetId="1" state="visible" r:id="rId2"/>
@@ -17,9 +17,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="24">
-  <si>
-    <t>Tag</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="25">
+  <si>
+    <t>IDTag</t>
   </si>
   <si>
     <t>Description</t>
@@ -55,6 +55,9 @@
     <t>£107</t>
   </si>
   <si>
+    <t>info</t>
+  </si>
+  <si>
     <t>£108</t>
   </si>
   <si>
@@ -79,7 +82,7 @@
     <t>£115</t>
   </si>
   <si>
-    <t>Timestamp</t>
+    <t>SpecialTimestamp</t>
   </si>
   <si>
     <t>Activity</t>
@@ -198,17 +201,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="D9" activeCellId="0" pane="topLeft" sqref="D9"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="D24" activeCellId="0" pane="topLeft" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="5.62745098039216"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.278431372549"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.1019607843137"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.75686274509804"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="5.75294117647059"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.5490196078431"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.3098039215686"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.93725490196078"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.75" outlineLevel="0" r="1" s="1">
@@ -309,6 +312,9 @@
       <c r="C9" s="0" t="s">
         <v>11</v>
       </c>
+      <c r="D9" s="0" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.75" outlineLevel="0" r="10">
       <c r="A10" s="0" t="n">
@@ -318,7 +324,7 @@
         <v>3</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.75" outlineLevel="0" r="11">
@@ -329,7 +335,7 @@
         <v>3</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.75" outlineLevel="0" r="12">
@@ -340,7 +346,7 @@
         <v>3</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.75" outlineLevel="0" r="13">
@@ -351,7 +357,7 @@
         <v>3</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.75" outlineLevel="0" r="14">
@@ -362,7 +368,7 @@
         <v>3</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.75" outlineLevel="0" r="15">
@@ -373,7 +379,7 @@
         <v>3</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.75" outlineLevel="0" r="16">
@@ -384,7 +390,7 @@
         <v>3</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.75" outlineLevel="0" r="17">
@@ -395,7 +401,7 @@
         <v>3</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -416,30 +422,30 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="B7" activeCellId="0" pane="topLeft" sqref="B7"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="A2" activeCellId="0" pane="topLeft" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.9725490196078"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="41.8470588235294"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.75686274509804"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.2078431372549"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="42.6980392156863"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.93725490196078"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.75" outlineLevel="0" r="1" s="1">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="1" s="1">
       <c r="A1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.75" outlineLevel="0" r="2">
       <c r="A2" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -465,7 +471,7 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.75686274509804"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.93725490196078"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
